--- a/biology/Zoologie/Gnathonemus_barbatus/Gnathonemus_barbatus.xlsx
+++ b/biology/Zoologie/Gnathonemus_barbatus/Gnathonemus_barbatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnathonemus barbatus est une espèce de poissons d'eau douce de la famille des Mormyridae endémique d'Angola.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Gnathonemus barbatus a été décrite en 1967 par l'ichtyologiste belge Max Poll (1908-1991).
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gnathonemus barbatus se rencontre dans la Luangue (d), une rivière du bassin supérieur du Congo en Angola[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnathonemus barbatus se rencontre dans la Luangue (d), une rivière du bassin supérieur du Congo en Angola.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gnathonemus barbatus peut mesurer jusqu'à 158 mm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnathonemus barbatus peut mesurer jusqu'à 158 mm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin barbatus, « barbu », fait référence au long barbillon de son menton[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin barbatus, « barbu », fait référence au long barbillon de son menton.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Max Poll, « Contribution à la faune ichthyologique de l'Angola », Publicações culturais da Companhia de Diamantes de Angola, Lisbonne, vol. 75,‎ 1967, p. 1-381 (ISSN 0870-614X).</t>
         </is>
